--- a/mosip_master/xlsx/zone.xlsx
+++ b/mosip_master/xlsx/zone.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6920"/>
+    <workbookView windowWidth="23040" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="zone" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="50">
   <si>
     <t>code</t>
   </si>
@@ -53,6 +53,24 @@
     <t>is_active</t>
   </si>
   <si>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
+  </si>
+  <si>
     <t>ML</t>
   </si>
   <si>
@@ -62,10 +80,16 @@
     <t>country</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
     <t>eng</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
   <si>
     <t>VA</t>
@@ -1308,15 +1332,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1341,286 +1365,371 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45526.6049657581</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1">
+        <v>45526.6049657581</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1">
+        <v>45526.6049657581</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1">
+        <v>45526.6049657581</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="1">
+        <v>45526.6049657581</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="1">
+        <v>45526.6049657581</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8" s="1"/>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="1">
+        <v>45526.6049657581</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9"/>
-      <c r="J9" s="1"/>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="1">
+        <v>45526.6049657581</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="1">
+        <v>45526.6049657581</v>
+      </c>
+      <c r="M10" t="s">
         <v>20</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10"/>
-      <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="1">
+        <v>45526.6049657581</v>
+      </c>
+      <c r="M11" t="s">
         <v>20</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11"/>
-      <c r="J11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
